--- a/Alcohol.xlsx
+++ b/Alcohol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\SCAN\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\SCAN\Programming\Alcohol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Participants</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Self-perceived attractiveness</t>
+  </si>
+  <si>
+    <t>YOLO</t>
   </si>
 </sst>
 </file>
@@ -350,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,7 +366,7 @@
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,8 +376,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -385,7 +391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -396,7 +402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -407,7 +413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -418,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -429,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -440,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -451,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -462,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -473,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -484,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -495,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -506,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -517,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -528,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -603,7 +609,7 @@
       </c>
       <c r="C22">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +621,7 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C41" ca="1" si="0">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +633,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +645,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +657,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,7 +669,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +681,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,7 +693,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,7 +705,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +717,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +729,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +753,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +765,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +777,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +789,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +801,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +825,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +837,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
